--- a/rozwiazania/Szymon_Grzebyta/Task3_Line_plot_by_months_2019_vs_top_product_Percentage_Change.xlsx
+++ b/rozwiazania/Szymon_Grzebyta/Task3_Line_plot_by_months_2019_vs_top_product_Percentage_Change.xlsx
@@ -478,10 +478,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.1702127659574468</v>
+        <v>0.17</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2138151329326312</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="4">
@@ -494,10 +494,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.3818181818181818</v>
+        <v>0.38</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2748296872272817</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="5">
@@ -510,10 +510,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.1973684210526316</v>
+        <v>0.2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2089649635165922</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="6">
@@ -526,10 +526,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.01758241758241752</v>
+        <v>0.02</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.07404886129915045</v>
+        <v>-0.07000000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -542,10 +542,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-0.2311015118790497</v>
+        <v>-0.23</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.1800846649135511</v>
+        <v>-0.18</v>
       </c>
     </row>
     <row r="8">
@@ -558,10 +558,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.03370786516853941</v>
+        <v>0.03</v>
       </c>
       <c r="D8" t="n">
-        <v>0.02660922634365703</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="9">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-0.1875</v>
+        <v>-0.19</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.1520599294037489</v>
+        <v>-0.15</v>
       </c>
     </row>
     <row r="10">
@@ -590,10 +590,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-0.03678929765886285</v>
+        <v>-0.04</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.06487025995687157</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="11">
@@ -606,10 +606,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.8229166666666667</v>
+        <v>0.82</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7804718487332092</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="12">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.1619047619047619</v>
+        <v>-0.16</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.1439634767367857</v>
+        <v>-0.14</v>
       </c>
     </row>
     <row r="13">
@@ -638,10 +638,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.4636363636363636</v>
+        <v>0.46</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4440225676552547</v>
+        <v>0.44</v>
       </c>
     </row>
   </sheetData>
